--- a/numbers.xlsx
+++ b/numbers.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Raw</t>
   </si>
@@ -63,19 +63,31 @@
   </si>
   <si>
     <t>responded to q41</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>male</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +110,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,20 +393,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -404,7 +417,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -412,7 +425,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -420,7 +433,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -428,7 +441,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -436,7 +449,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -447,15 +460,16 @@
         <v>8050</v>
       </c>
       <c r="D7">
+        <f>SUM(B7:C7)</f>
         <v>9986</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -463,15 +477,16 @@
         <v>457</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11">
         <v>533</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -479,7 +494,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -487,7 +502,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -498,10 +513,11 @@
         <v>7590</v>
       </c>
       <c r="D14">
+        <f>SUM(B14:C14)</f>
         <v>9523</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -514,11 +530,11 @@
         <v>1925</v>
       </c>
       <c r="C17">
-        <v>6420</v>
+        <v>6476</v>
       </c>
       <c r="D17">
         <f>SUM(B17:C17)</f>
-        <v>8345</v>
+        <v>8401</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -534,10 +550,11 @@
         <v>1902</v>
       </c>
       <c r="C20">
-        <v>6226</v>
+        <v>6280</v>
       </c>
       <c r="D20">
-        <v>8128</v>
+        <f>SUM(B20:C20)</f>
+        <v>8182</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -553,10 +570,11 @@
         <v>1932</v>
       </c>
       <c r="C23">
-        <v>6264</v>
+        <v>6320</v>
       </c>
       <c r="D23">
-        <v>8196</v>
+        <f>SUM(B23:C23)</f>
+        <v>8252</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -569,16 +587,78 @@
         <v>7</v>
       </c>
       <c r="B26">
-        <v>1932</v>
+        <v>1911</v>
       </c>
       <c r="C26">
-        <v>6264</v>
+        <v>6298</v>
       </c>
       <c r="D26">
-        <v>8050</v>
+        <f>SUM(B26:C26)</f>
+        <v>8209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27">
+        <f>1004-6</f>
+        <v>998</v>
+      </c>
+      <c r="C27">
+        <f>3785-743</f>
+        <v>3042</v>
+      </c>
+      <c r="D27">
+        <f>SUM(B27:C27)</f>
+        <v>4040</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28">
+        <f>923-10</f>
+        <v>913</v>
+      </c>
+      <c r="C28">
+        <f>4261-1005</f>
+        <v>3256</v>
+      </c>
+      <c r="D28">
+        <f>SUM(B28:C28)</f>
+        <v>4169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29">
+        <f>998/1911</f>
+        <v>0.52223966509680797</v>
+      </c>
+      <c r="C29">
+        <f>3042/6298</f>
+        <v>0.48301047951730708</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30">
+        <f>913/1911</f>
+        <v>0.47776033490319203</v>
+      </c>
+      <c r="C30">
+        <f>3256/6298</f>
+        <v>0.51698952048269287</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>